--- a/ManageStudents/src/Data/managestudents.xlsx
+++ b/ManageStudents/src/Data/managestudents.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\Project\github\ManageStudents\ManageStudents\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760145D-29BD-42AA-8146-A4A4B4934A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF5502-8707-4DCD-B23B-172A5106A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
     <sheet name="class" sheetId="2" r:id="rId2"/>
     <sheet name="subject" sheetId="3" r:id="rId3"/>
     <sheet name="schedule" sheetId="4" r:id="rId4"/>
+    <sheet name="transcript" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nguyễn Văn A </t>
   </si>
@@ -278,6 +279,21 @@
   </si>
   <si>
     <t>Class Name</t>
+  </si>
+  <si>
+    <t>MidTerm</t>
+  </si>
+  <si>
+    <t>EndTerm</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>SubjectId</t>
   </si>
 </sst>
 </file>
@@ -761,8 +777,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,7 +1138,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1930,7 +1947,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,4 +2120,321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC271F48-F6A6-4F41-976E-6EE7FB557504}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1742001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1742003</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1742005</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1742009</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1742011</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1742013</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1742018</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1742024</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1742025</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1742029</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1742035</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1742036</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ManageStudents/src/Data/managestudents.xlsx
+++ b/ManageStudents/src/Data/managestudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\Project\github\ManageStudents\ManageStudents\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF5502-8707-4DCD-B23B-172A5106A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BFDD20-2E01-4ED8-A2C4-FD82993341B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
   <si>
     <t xml:space="preserve">Nguyễn Văn A </t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>SubjectId</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1150,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1163,8 +1166,11 @@
       <c r="E1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1180,8 +1186,11 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1742001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1197,8 +1206,11 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1742002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1226,11 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1742003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1231,8 +1246,11 @@
       <c r="E5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1742004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1248,8 +1266,11 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1742005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1265,8 +1286,11 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1742006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1282,8 +1306,11 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1742007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1299,8 +1326,11 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1742008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1316,8 +1346,11 @@
       <c r="E10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1742009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1742010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1386,11 @@
       <c r="E12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1742011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1367,8 +1406,11 @@
       <c r="E13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1742012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1384,8 +1426,11 @@
       <c r="E14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1742013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1401,8 +1446,11 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1742014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1418,8 +1466,11 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1742015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1435,8 +1486,11 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1742016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1452,8 +1506,11 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1742017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1469,8 +1526,11 @@
       <c r="E19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1742018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1486,8 +1546,11 @@
       <c r="E20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1742019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1503,8 +1566,11 @@
       <c r="E21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1742020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1520,8 +1586,11 @@
       <c r="E22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1742021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1537,8 +1606,11 @@
       <c r="E23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1742022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1626,11 @@
       <c r="E24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1742023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1571,8 +1646,11 @@
       <c r="E25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1742024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1588,8 +1666,11 @@
       <c r="E26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1742025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1686,11 @@
       <c r="E27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1742026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1622,8 +1706,11 @@
       <c r="E28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1742027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1639,8 +1726,11 @@
       <c r="E29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1742028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1656,8 +1746,11 @@
       <c r="E30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1742029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1673,8 +1766,11 @@
       <c r="E31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1742030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1786,11 @@
       <c r="E32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1742031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1806,11 @@
       <c r="E33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1742032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1724,8 +1826,11 @@
       <c r="E34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1742033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1741,8 +1846,11 @@
       <c r="E35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1742034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1758,8 +1866,11 @@
       <c r="E36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1742035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1774,6 +1885,9 @@
       </c>
       <c r="E37" t="s">
         <v>41</v>
+      </c>
+      <c r="F37">
+        <v>1742036</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC271F48-F6A6-4F41-976E-6EE7FB557504}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
